--- a/5_Integración con datos de patógenos y enfermedades/Genes_dysbiosis_diseases_with_FC_sorted_all.xlsx
+++ b/5_Integración con datos de patógenos y enfermedades/Genes_dysbiosis_diseases_with_FC_sorted_all.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="28" documentId="11_1E51DD15137A6E0E62355476585DCE3A8747B962" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2BE5CE5-7550-409E-B87E-DE68E316D019}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bacillus subtilis CW14" sheetId="1" r:id="rId1"/>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2141,8 +2141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F43FA6D-1417-4C8E-A2DE-9E74633AF58C}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
